--- a/bagreport1.xlsx
+++ b/bagreport1.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Артем\Desktop\BugReports\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11880"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="баг репорт" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="тест кейс" sheetId="2" r:id="rId5"/>
+    <sheet name="баг репорт" sheetId="1" r:id="rId1"/>
+    <sheet name="тест кейс" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -267,34 +275,60 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-    </font>
-    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -302,7 +336,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -318,7 +352,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -332,84 +372,81 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -599,707 +636,720 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A3:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="19.25"/>
-    <col customWidth="1" min="3" max="3" width="17.38"/>
-    <col customWidth="1" min="4" max="4" width="17.5"/>
-    <col customWidth="1" min="5" max="5" width="22.25"/>
-    <col customWidth="1" min="6" max="6" width="19.75"/>
-    <col customWidth="1" min="7" max="7" width="16.38"/>
-    <col customWidth="1" min="8" max="9" width="15.75"/>
-    <col customWidth="1" min="10" max="10" width="35.0"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="60.42578125" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:10" ht="14.25">
+      <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:10" ht="92.25" customHeight="1">
+      <c r="A4" s="15">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:10" ht="84" customHeight="1">
+      <c r="A5" s="15">
+        <v>2</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="J5" s="18"/>
+    </row>
+    <row r="6" spans="1:10" ht="163.5" customHeight="1">
+      <c r="A6" s="15">
+        <v>3</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="1:10" ht="102" customHeight="1">
+      <c r="A7" s="15">
+        <v>4</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="16" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="1:10" ht="89.25" customHeight="1">
+      <c r="A8" s="15">
+        <v>5</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="16" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="1:10" ht="128.25" customHeight="1">
+      <c r="A9" s="15">
+        <v>6</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="1:10" ht="80.25" customHeight="1">
+      <c r="A10" s="15">
+        <v>7</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="1:10" ht="120" customHeight="1">
+      <c r="A11" s="15">
+        <v>8</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="J11" s="18"/>
+    </row>
+    <row r="12" spans="1:10" ht="132" customHeight="1">
+      <c r="A12" s="15">
+        <v>9</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="16" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15">
-      <c r="C15" s="9"/>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16">
-      <c r="C16" s="9"/>
-      <c r="D16" s="11"/>
-    </row>
-    <row r="17">
-      <c r="C17" s="9"/>
-      <c r="D17" s="11"/>
-    </row>
-    <row r="18">
-      <c r="C18" s="9"/>
-      <c r="D18" s="11"/>
-    </row>
-    <row r="19">
-      <c r="C19" s="9"/>
-      <c r="D19" s="11"/>
-    </row>
-    <row r="20">
-      <c r="C20" s="9"/>
-      <c r="D20" s="11"/>
-    </row>
-    <row r="21">
-      <c r="C21" s="9"/>
-      <c r="D21" s="11"/>
-    </row>
-    <row r="22">
-      <c r="C22" s="9"/>
-      <c r="D22" s="11"/>
-    </row>
-    <row r="23">
-      <c r="C23" s="9"/>
-      <c r="D23" s="11"/>
-    </row>
-    <row r="24">
-      <c r="C24" s="9"/>
-      <c r="D24" s="11"/>
-    </row>
-    <row r="25">
-      <c r="C25" s="9"/>
-      <c r="D25" s="11"/>
-    </row>
-    <row r="26">
-      <c r="C26" s="9"/>
-      <c r="D26" s="11"/>
-    </row>
-    <row r="27">
-      <c r="C27" s="9"/>
-      <c r="D27" s="11"/>
-    </row>
-    <row r="28">
-      <c r="C28" s="9"/>
-      <c r="D28" s="11"/>
-    </row>
-    <row r="29">
-      <c r="C29" s="9"/>
-    </row>
-    <row r="30">
-      <c r="C30" s="9"/>
-    </row>
-    <row r="31">
-      <c r="C31" s="9"/>
+      <c r="J12" s="18"/>
+    </row>
+    <row r="13" spans="1:10" ht="12.75">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" ht="12.75">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" ht="12.75">
+      <c r="C15" s="5"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" ht="12.75">
+      <c r="C16" s="5"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="3:4" ht="12.75">
+      <c r="C17" s="5"/>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="3:4" ht="12.75">
+      <c r="C18" s="5"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="3:4" ht="12.75">
+      <c r="C19" s="5"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="3:4" ht="12.75">
+      <c r="C20" s="5"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="3:4" ht="12.75">
+      <c r="C21" s="5"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="3:4" ht="12.75">
+      <c r="C22" s="5"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="3:4" ht="12.75">
+      <c r="C23" s="5"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="3:4" ht="12.75">
+      <c r="C24" s="5"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="3:4" ht="12.75">
+      <c r="C25" s="5"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="3:4" ht="12.75">
+      <c r="C26" s="5"/>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="3:4" ht="12.75">
+      <c r="C27" s="5"/>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="3:4" ht="12.75">
+      <c r="C28" s="5"/>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="3:4" ht="12.75">
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" spans="3:4" ht="12.75">
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31" spans="3:4" ht="12.75">
+      <c r="C31" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="J4"/>
-    <hyperlink r:id="rId2" ref="J9"/>
-    <hyperlink r:id="rId3" ref="J10"/>
+    <hyperlink ref="J4" r:id="rId1"/>
+    <hyperlink ref="J9" r:id="rId2"/>
+    <hyperlink ref="J10" r:id="rId3"/>
   </hyperlinks>
-  <drawing r:id="rId4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A4:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.88"/>
-    <col customWidth="1" min="3" max="3" width="26.13"/>
-    <col customWidth="1" min="4" max="4" width="30.13"/>
-    <col customWidth="1" min="5" max="5" width="19.13"/>
-    <col customWidth="1" min="6" max="6" width="17.88"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6">
-      <c r="C6" s="12"/>
-      <c r="D6" s="12" t="s">
+    <row r="6" spans="1:6">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="13" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:6">
+      <c r="A14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="10">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="s">
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="10">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="4" t="s">
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="10">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="4" t="s">
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="14">
-        <v>4.0</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="10">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="14">
-        <v>5.0</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="10">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="s">
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="14">
-        <v>6.0</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="10">
+        <v>6</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="14">
-        <v>7.0</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="10">
+        <v>7</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="s">
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="14">
-        <v>8.0</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="10">
+        <v>8</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="11"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="11"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="11"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="11"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="11"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="11"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="11"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="11"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="11"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="11"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="11"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="11"/>
-    </row>
-    <row r="29">
-      <c r="B29" s="17"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30">
-      <c r="B30" s="17"/>
-      <c r="D30" s="8"/>
-    </row>
-    <row r="31">
-      <c r="B31" s="17"/>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32">
-      <c r="D32" s="8"/>
-    </row>
-    <row r="33">
-      <c r="D33" s="8"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="7"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="7"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="7"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="7"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="7"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="7"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="7"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="B29" s="13"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="B30" s="13"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="B31" s="13"/>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="4"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>